--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N2">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q2">
-        <v>101.3851047197146</v>
+        <v>122.2377304329831</v>
       </c>
       <c r="R2">
-        <v>912.4659424774319</v>
+        <v>1100.139573896848</v>
       </c>
       <c r="S2">
-        <v>0.05017649632681041</v>
+        <v>0.05981178560574502</v>
       </c>
       <c r="T2">
-        <v>0.05017649632681041</v>
+        <v>0.05981178560574502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P3">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q3">
-        <v>436.5994669146463</v>
+        <v>441.3086627829513</v>
       </c>
       <c r="R3">
-        <v>3929.395202231816</v>
+        <v>3971.777965046561</v>
       </c>
       <c r="S3">
-        <v>0.2160774169784947</v>
+        <v>0.2159354483336324</v>
       </c>
       <c r="T3">
-        <v>0.2160774169784947</v>
+        <v>0.2159354483336324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N4">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q4">
-        <v>26.36833811926899</v>
+        <v>40.92268951151267</v>
       </c>
       <c r="R4">
-        <v>237.315043073421</v>
+        <v>368.304205603614</v>
       </c>
       <c r="S4">
-        <v>0.01304995269712751</v>
+        <v>0.02002376126260784</v>
       </c>
       <c r="T4">
-        <v>0.01304995269712752</v>
+        <v>0.02002376126260784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N5">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O5">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P5">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q5">
-        <v>32.87249301031866</v>
+        <v>37.33424834161755</v>
       </c>
       <c r="R5">
-        <v>295.852437092868</v>
+        <v>336.0082350745579</v>
       </c>
       <c r="S5">
-        <v>0.01626892361896056</v>
+        <v>0.01826791163130053</v>
       </c>
       <c r="T5">
-        <v>0.01626892361896056</v>
+        <v>0.01826791163130053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N6">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O6">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P6">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q6">
-        <v>28.29077089573233</v>
+        <v>50.74823336073221</v>
       </c>
       <c r="R6">
-        <v>254.616938061591</v>
+        <v>456.7341002465899</v>
       </c>
       <c r="S6">
-        <v>0.01400138379160066</v>
+        <v>0.02483146932531246</v>
       </c>
       <c r="T6">
-        <v>0.01400138379160066</v>
+        <v>0.02483146932531245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N7">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q7">
-        <v>41.41161133870755</v>
+        <v>49.39625245943822</v>
       </c>
       <c r="R7">
-        <v>372.7045020483679</v>
+        <v>444.566272134944</v>
       </c>
       <c r="S7">
-        <v>0.0204950181781477</v>
+        <v>0.02416993551308586</v>
       </c>
       <c r="T7">
-        <v>0.0204950181781477</v>
+        <v>0.02416993551308586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P8">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q8">
-        <v>178.3327786122064</v>
+        <v>178.3327786122065</v>
       </c>
       <c r="R8">
         <v>1604.995007509858</v>
       </c>
       <c r="S8">
-        <v>0.08825866517298453</v>
+        <v>0.08725948921865778</v>
       </c>
       <c r="T8">
-        <v>0.08825866517298454</v>
+        <v>0.08725948921865777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N9">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q9">
-        <v>10.77037275703933</v>
+        <v>16.53685400792133</v>
       </c>
       <c r="R9">
-        <v>96.93335481335399</v>
+        <v>148.831686071292</v>
       </c>
       <c r="S9">
-        <v>0.005330364559724883</v>
+        <v>0.008091599565958648</v>
       </c>
       <c r="T9">
-        <v>0.005330364559724883</v>
+        <v>0.008091599565958646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N10">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O10">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P10">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q10">
-        <v>13.42705033487022</v>
+        <v>15.08676535414711</v>
       </c>
       <c r="R10">
-        <v>120.843453013832</v>
+        <v>135.780888187324</v>
       </c>
       <c r="S10">
-        <v>0.006645180706476173</v>
+        <v>0.007382060936914661</v>
       </c>
       <c r="T10">
-        <v>0.006645180706476174</v>
+        <v>0.007382060936914659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N11">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O11">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P11">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q11">
-        <v>11.55560683243711</v>
+        <v>20.50735511922444</v>
       </c>
       <c r="R11">
-        <v>104.000461491934</v>
+        <v>184.56619607302</v>
       </c>
       <c r="S11">
-        <v>0.005718984710671194</v>
+        <v>0.01003439382739852</v>
       </c>
       <c r="T11">
-        <v>0.005718984710671194</v>
+        <v>0.01003439382739852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N12">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q12">
-        <v>84.30541426000089</v>
+        <v>92.090961779152</v>
       </c>
       <c r="R12">
-        <v>758.748728340008</v>
+        <v>828.818656012368</v>
       </c>
       <c r="S12">
-        <v>0.04172358770690896</v>
+        <v>0.04506075859434686</v>
       </c>
       <c r="T12">
-        <v>0.04172358770690896</v>
+        <v>0.04506075859434687</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N13">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O13">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P13">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q13">
-        <v>363.0483888702581</v>
+        <v>332.4713167791891</v>
       </c>
       <c r="R13">
-        <v>3267.435499832323</v>
+        <v>2992.241851012701</v>
       </c>
       <c r="S13">
-        <v>0.1796762571875185</v>
+        <v>0.162680565557121</v>
       </c>
       <c r="T13">
-        <v>0.1796762571875185</v>
+        <v>0.162680565557121</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N14">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q14">
-        <v>21.92623536404433</v>
+        <v>30.83016857688601</v>
       </c>
       <c r="R14">
-        <v>197.336118276399</v>
+        <v>277.471517191974</v>
       </c>
       <c r="S14">
-        <v>0.01085151187885312</v>
+        <v>0.01508541942473859</v>
       </c>
       <c r="T14">
-        <v>0.01085151187885312</v>
+        <v>0.01508541942473859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N15">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O15">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P15">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q15">
-        <v>27.33467750174356</v>
+        <v>28.126723433942</v>
       </c>
       <c r="R15">
-        <v>246.012097515692</v>
+        <v>253.140510905478</v>
       </c>
       <c r="S15">
-        <v>0.01352820366514924</v>
+        <v>0.0137626046055015</v>
       </c>
       <c r="T15">
-        <v>0.01352820366514924</v>
+        <v>0.01376260460550149</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N16">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O16">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P16">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q16">
-        <v>23.52480836995878</v>
+        <v>38.23249664591</v>
       </c>
       <c r="R16">
-        <v>211.723275329629</v>
+        <v>344.09246981319</v>
       </c>
       <c r="S16">
-        <v>0.01164266155297095</v>
+        <v>0.0187074308763549</v>
       </c>
       <c r="T16">
-        <v>0.01164266155297095</v>
+        <v>0.0187074308763549</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N17">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q17">
-        <v>17.50240500820622</v>
+        <v>21.921758749968</v>
       </c>
       <c r="R17">
-        <v>157.521645073856</v>
+        <v>197.295828749712</v>
       </c>
       <c r="S17">
-        <v>0.008662114252704788</v>
+        <v>0.01072647152241432</v>
       </c>
       <c r="T17">
-        <v>0.008662114252704788</v>
+        <v>0.01072647152241432</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N18">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O18">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P18">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q18">
-        <v>75.3714336778818</v>
+        <v>79.14301096340101</v>
       </c>
       <c r="R18">
-        <v>678.342903100936</v>
+        <v>712.2870986706091</v>
       </c>
       <c r="S18">
-        <v>0.03730207189251217</v>
+        <v>0.03872523473046086</v>
       </c>
       <c r="T18">
-        <v>0.03730207189251216</v>
+        <v>0.03872523473046086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N19">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q19">
-        <v>4.552042772285334</v>
+        <v>7.338956013774002</v>
       </c>
       <c r="R19">
-        <v>40.96838495056801</v>
+        <v>66.05060412396601</v>
       </c>
       <c r="S19">
-        <v>0.002252851225774241</v>
+        <v>0.003591003057002123</v>
       </c>
       <c r="T19">
-        <v>0.002252851225774241</v>
+        <v>0.003591003057002122</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N20">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O20">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P20">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q20">
-        <v>5.67487391650489</v>
+        <v>6.695415420078001</v>
       </c>
       <c r="R20">
-        <v>51.07386524854402</v>
+        <v>60.258738780702</v>
       </c>
       <c r="S20">
-        <v>0.002808551522571444</v>
+        <v>0.003276114095284677</v>
       </c>
       <c r="T20">
-        <v>0.002808551522571444</v>
+        <v>0.003276114095284676</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N21">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O21">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P21">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q21">
-        <v>4.883917924436446</v>
+        <v>9.10104044619</v>
       </c>
       <c r="R21">
-        <v>43.95526131992801</v>
+        <v>81.90936401571</v>
       </c>
       <c r="S21">
-        <v>0.002417099538175814</v>
+        <v>0.004453203426049948</v>
       </c>
       <c r="T21">
-        <v>0.002417099538175814</v>
+        <v>0.004453203426049947</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H22">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I22">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J22">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N22">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O22">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P22">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q22">
-        <v>82.8940528209671</v>
+        <v>75.0745015969031</v>
       </c>
       <c r="R22">
-        <v>746.0464753887039</v>
+        <v>675.670514372128</v>
       </c>
       <c r="S22">
-        <v>0.04102509089855375</v>
+        <v>0.0367344843369287</v>
       </c>
       <c r="T22">
-        <v>0.04102509089855375</v>
+        <v>0.0367344843369287</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H23">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I23">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J23">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N23">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O23">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P23">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q23">
-        <v>356.9705764183249</v>
+        <v>271.0376558160162</v>
       </c>
       <c r="R23">
-        <v>3212.735187764924</v>
+        <v>2439.338902344146</v>
       </c>
       <c r="S23">
-        <v>0.1766682873776282</v>
+        <v>0.1326206409700899</v>
       </c>
       <c r="T23">
-        <v>0.1766682873776282</v>
+        <v>0.1326206409700898</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H24">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I24">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J24">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N24">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O24">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P24">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q24">
-        <v>21.55916708773466</v>
+        <v>25.13340609482267</v>
       </c>
       <c r="R24">
-        <v>194.032503789612</v>
+        <v>226.200654853404</v>
       </c>
       <c r="S24">
-        <v>0.01066984613940491</v>
+        <v>0.01229795327155415</v>
       </c>
       <c r="T24">
-        <v>0.01066984613940491</v>
+        <v>0.01229795327155415</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H25">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I25">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J25">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N25">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O25">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P25">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q25">
-        <v>26.87706620698845</v>
+        <v>22.92950038268756</v>
       </c>
       <c r="R25">
-        <v>241.893595862896</v>
+        <v>206.365503444188</v>
       </c>
       <c r="S25">
-        <v>0.01330172728566662</v>
+        <v>0.01121956662708211</v>
       </c>
       <c r="T25">
-        <v>0.01330172728566662</v>
+        <v>0.01121956662708211</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H26">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I26">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J26">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N26">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O26">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P26">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q26">
-        <v>23.13097829765022</v>
+        <v>31.16794064308222</v>
       </c>
       <c r="R26">
-        <v>208.178804678852</v>
+        <v>280.51146578774</v>
       </c>
       <c r="S26">
-        <v>0.01144775113460912</v>
+        <v>0.01525069368445674</v>
       </c>
       <c r="T26">
-        <v>0.01144775113460912</v>
+        <v>0.01525069368445674</v>
       </c>
     </row>
   </sheetData>
